--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_26.07.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700209.6790972</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700210.0171504</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700209.6790972.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700210.0171504.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>3131.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>3130.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.9000000000000909</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700210.2928975</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700210.7261443</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700210.2928975.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700210.7261443.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>3129</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>3127.9</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.099999999999909</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700210.7740288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700211.0652497</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700210.7740288.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700211.0652497.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>3125.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>3126.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.9499999999998181</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700211.1666324</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700211.3239074</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700211.1666324.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700211.3239074.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>3126.95</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>3126.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6499999999996362</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700211.5291846</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700211.9131482</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700211.5291846.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700211.9131482.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>3130</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>3132.55</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-2.550000000000182</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700211.9570367</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700212.027927</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700211.9570367.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700212.027927.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>3134.95</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>3132.85</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.099999999999909</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700212.1554778</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700212.2912989</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700212.1554778.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700212.2912989.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>3134.95</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>3135.95</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700212.3361146</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700212.623129</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700212.3361146.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700212.623129.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>3129.05</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>3132.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700212.9918318</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700213.221278</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700212.9918318.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700213.221278.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>3100.75</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>17.19999999999982</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700213.92814</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700214.3652675</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700213.92814.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700214.3652675.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>3075.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>3086.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>10.69999999999982</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700214.509295</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700214.6615348</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700214.509295.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700214.6615348.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>3091.65</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>3079.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>12.05000000000018</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700214.7319372</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700215.1464932</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700214.7319372.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700215.1464932.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>3076.9</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>3066.45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-10.45000000000027</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700215.3108761</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700215.4761872</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700215.3108761.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700215.4761872.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>3049.05</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>3058.95</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>9.899999999999636</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700215.6589744</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700215.945342</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700215.6589744.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700215.945342.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>3061.75</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>3063.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.449999999999818</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700216.251634</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700216.422356</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700216.251634.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700216.422356.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>3074.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>3068.1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700216.5198364</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700216.6611319</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700216.5198364.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700216.6611319.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>3065</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>3071.9</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>6.900000000000091</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700216.9460099</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700217.1260607</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700216.9460099.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.1260607.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>3072.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>3072.05</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700217.1751914</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700217.2621758</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.1751914.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.2621758.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>3069.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>3075.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>6.400000000000091</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700217.3946218</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700217.7975128</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.3946218.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.7975128.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>3079.95</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>3082.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2.150000000000091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700217.8738582</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700217.9157186</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.8738582.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.9157186.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>3080.45</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>3085</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.550000000000182</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700217.9306781</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700218.178966</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700217.9306781.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700218.178966.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>3085</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>3081.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3.199999999999818</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700218.2893207</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700219.04123</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700218.2893207.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700219.04123.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>3074.3</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>3080</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>5.699999999999818</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700219.3752396</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700219.6648605</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700219.3752396.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700219.6648605.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>3083.7</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>3082.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700219.77555</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731700220.3362417</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700219.77555.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700220.3362417.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>3076.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>3079</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700220.3853307</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700220.428302</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700220.3853307.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700220.428302.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>3081.25</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>3073.55</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>7.699999999999818</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1839,44 +2005,50 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700220.4422655</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700220.4422655.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700220.4422655.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>3073.55</v>
       </c>
-      <c r="J28" t="n">
-        <v>3073.55</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3065.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-7.650000000000091</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1937,19 +2109,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.99999999999818</v>
+        <v>77.34999999999809</v>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>3.269230769230699</v>
+        <v>2.974999999999926</v>
       </c>
       <c r="E2" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
